--- a/user-data/kenya-malaria-drugs-under5/kenya-malaria-drugs-under5.xlsx
+++ b/user-data/kenya-malaria-drugs-under5/kenya-malaria-drugs-under5.xlsx
@@ -322,7 +322,7 @@
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 33</t>
+    <t xml:space="preserve">Source: 34</t>
   </si>
   <si>
     <t xml:space="preserve"/>

--- a/user-data/kenya-malaria-drugs-under5/kenya-malaria-drugs-under5.xlsx
+++ b/user-data/kenya-malaria-drugs-under5/kenya-malaria-drugs-under5.xlsx
@@ -322,7 +322,7 @@
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 34</t>
+    <t xml:space="preserve">Source: 36</t>
   </si>
   <si>
     <t xml:space="preserve"/>
